--- a/docs/example-calculation.xlsx
+++ b/docs/example-calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nando.kawka/projects/record-stream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31E279D1-23ED-4844-BA3E-2EAB63F50FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB66F935-26E4-4942-A0B2-E1349F4C752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20920" windowHeight="25700" xr2:uid="{F072EEED-B961-4149-BCB1-F1D2F07FE51D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Raspberry Pi 4 B 2GB</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>USB Audio Interface</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,14 +474,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <f>SUM(B3:B7)</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
